--- a/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_34_9.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_34_9.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9976278117231678</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5955734407161091</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998101771405231</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999742221159639</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999092982983978</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3507992760185281</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H2" t="n">
-        <v>235.95344994499</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0292184400619263</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0060186172723428</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01761844581868505</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4401334729485896</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5922831046201876</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001963190298068</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6174978225789176</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P2" t="n">
-        <v>108.0950821645749</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.6955008825896</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_1</t>
+          <t>model_34_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980656951861669</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5964001010131312</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998255909537518</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999749243285521</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999158259071039</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2860450559168651</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H3" t="n">
-        <v>236.0756964953759</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0268458723996803</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005854664761501778</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01635048371561081</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.397480502581826</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5348318015197536</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001600803983862</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5576006985649057</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5032118847985</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.1036306028132</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_2</t>
+          <t>model_34_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984192249274599</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5971865629375834</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998278826155351</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999714994358794</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999146745127375</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2337650667997279</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H4" t="n">
-        <v>236.1919985091783</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02649312888584915</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006654308291863183</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01657413750493517</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.359241839906751</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4834925716075976</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00130822764624</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5040758513485323</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P4" t="n">
-        <v>108.9068773119867</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q4" t="n">
-        <v>173.5072960300014</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_3</t>
+          <t>model_34_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9987043815868312</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5979340586761914</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998200131989783</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999648564494299</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999075676097959</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1915960911597055</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H5" t="n">
-        <v>236.3025382022084</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02770442702255884</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00820531197117629</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01795462521577698</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3248937963098429</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4377169075552205</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00107223592814</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4563514225087579</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P5" t="n">
-        <v>109.3047316293977</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.9051503474123</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_4</t>
+          <t>model_34_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989340796094127</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5986439037128823</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998043978704195</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999557704718726</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998959188241238</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1576283404497548</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H6" t="n">
-        <v>236.4075101082702</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I6" t="n">
-        <v>0.030108012885708</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01032670492126491</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02021735563420429</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2940121692645643</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3970243575018474</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0008821410129</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4139265063544215</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P6" t="n">
-        <v>109.6950305850723</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.295449303087</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_5</t>
+          <t>model_34_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9991187705990175</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5993151861288553</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997830378443696</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999449122020185</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998809297347463</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1303162311735643</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H7" t="n">
-        <v>236.5067793727831</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03339584999120609</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01286189246418621</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02312892679995651</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2662469167870664</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3609933949168105</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000729293297365</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3763616310977647</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P7" t="n">
-        <v>110.0755824697839</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q7" t="n">
-        <v>174.6760011877985</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_6</t>
+          <t>model_34_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992669822548315</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5999483432974575</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999757567829353</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999328493776182</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999863585947701</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G8" t="n">
-        <v>0.10839868691083</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H8" t="n">
-        <v>236.6004106745313</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03731631620475436</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01567831925808928</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02649788864908629</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2412785103021032</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3292395585448838</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000606635375312</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3432559681719821</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P8" t="n">
-        <v>110.4438786068374</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q8" t="n">
-        <v>175.044297324852</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_7</t>
+          <t>model_34_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993856145020723</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6005430344960614</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997293505797348</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999200494197077</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998447135786238</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09085534650610368</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H9" t="n">
-        <v>236.688353627442</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04165964987360717</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01866685189550694</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03016377149562759</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2194397795519984</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3014222063918047</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000508456963802</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O9" t="n">
-        <v>0.314254373747889</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P9" t="n">
-        <v>110.796973272104</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3973919901186</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_8</t>
+          <t>model_34_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9994803043269315</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6010997241575675</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996994126621116</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999068913927164</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998249463656369</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07685261226645795</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H10" t="n">
-        <v>236.770676911867</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04626783697005458</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02173898645894949</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0340034742227338</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2012659167827764</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2772230370414009</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000430092970815</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2890249956590523</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P10" t="n">
-        <v>111.1317316356382</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q10" t="n">
-        <v>175.7321503536529</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_9</t>
+          <t>model_34_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995556441413406</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6016187764981669</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996686495169554</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99989368014511</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998048195682233</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06571135817283141</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H11" t="n">
-        <v>236.847434388108</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05100304702503566</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02482354696522219</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03791302479865669</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1849448841261606</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2563422676283242</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00036774277958</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2672552886629094</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P11" t="n">
-        <v>111.4449669781811</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.0453856961957</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_10</t>
+          <t>model_34_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9996153411838188</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6021007962591638</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996377479559554</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998806441810548</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997847397502693</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05688335767796204</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H12" t="n">
-        <v>236.9187154853277</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05575956270701407</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02786718228898848</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04181344980086685</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1702874600106113</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2385023221647161</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000318338330633</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2486558597871373</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P12" t="n">
-        <v>111.7335049286458</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.3339236466604</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_11</t>
+          <t>model_34_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996624531892686</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.602546759027428</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996072273940092</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998679677318072</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997650297610249</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04991643284953017</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H13" t="n">
-        <v>236.9846644733428</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0604574331971036</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03082687813860706</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04564203704293721</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1571217412141504</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2234198577779741</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000279349084743</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2329313036664462</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9948100296306</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q13" t="n">
-        <v>176.5952287476452</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9996994408639246</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6029583017780067</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999577502471625</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998557918104425</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997459317941813</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04444669437318926</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H14" t="n">
-        <v>237.045523428074</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06503283505029606</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03366971079817657</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04935174136090796</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1452936785029901</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2108238467849149</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000248738595373</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2197990544080752</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P14" t="n">
-        <v>112.2269293741899</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8273480922045</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_13</t>
+          <t>model_34_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997283012594759</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6033368022464687</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9995488447506634</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998441863707804</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997276027637485</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04017881818313088</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H15" t="n">
-        <v>237.1014960891001</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06944396816953358</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03637934745823922</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0529120828306255</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1346684058545782</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2004465469473866</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000224854130089</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2089799714324913</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P15" t="n">
-        <v>112.4288306661817</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.0292493841964</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_14</t>
+          <t>model_34_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997506722943961</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6036835197867627</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995214880707619</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998332208254062</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997101810073908</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0368705888446671</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H16" t="n">
-        <v>237.152768689722</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07365483884230827</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03893958167677766</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05629618990946872</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1251225609319982</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1920171576830235</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000206340170155</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2001917256159028</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P16" t="n">
-        <v>112.6006821920583</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.2011009100729</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_15</t>
+          <t>model_34_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997678607505908</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6040006122747459</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999495571399176</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998229359190465</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996937285635336</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03432875940900984</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H17" t="n">
-        <v>237.1996603366886</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0776440565657532</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04134090037981993</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05949201187932485</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1165422887778362</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M17" t="n">
-        <v>0.185280218612268</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00019211524089</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1931679811015189</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P17" t="n">
-        <v>112.7435436187843</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.3439623367989</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_16</t>
+          <t>model_34_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997809352788042</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6042901098969811</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9994711810229532</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998133429485615</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999678297024129</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03239529777092598</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H18" t="n">
-        <v>237.2424712540517</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0813983396258455</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04358066597784108</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06248952720808806</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1088321188889641</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1799869377786232</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000181294941679</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1876493543441839</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P18" t="n">
-        <v>112.8594839944866</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.4599027125012</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_17</t>
+          <t>model_34_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997907523870085</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.604553982942208</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999448362782193</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998044179486573</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996638931861281</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03094354350491206</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H19" t="n">
-        <v>237.2814928081713</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08491063209583234</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04566447388482348</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06528741561499361</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1019001401273615</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1759077698821518</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000173170438338</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1833965278253181</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P19" t="n">
-        <v>112.9511818242348</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.5516005422494</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_18</t>
+          <t>model_34_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999797999153597</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.604793954835652</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9994270886664978</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997961615702232</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996505011084411</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02987189143685126</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3169798592234</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08818524546970782</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04759217213112769</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06788877359350851</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09566853284342679</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1728348675379226</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000167173114265</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1801928056665103</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P20" t="n">
-        <v>113.0216746529345</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.6220933709491</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_19</t>
+          <t>model_34_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998032278100559</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6050117408804137</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9994073451629164</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997885506765214</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996381021801947</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02909867755739253</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H21" t="n">
-        <v>237.3491860662835</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09122425972539169</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0493691626796146</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07029721623197323</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09006722027812647</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1705833449003523</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000162845950298</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1778454310489642</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P21" t="n">
-        <v>113.074125101201</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.6745438192156</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_20</t>
+          <t>model_34_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998068883433586</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.605209362159975</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999389112587055</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997815525593554</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996266765302753</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02855735777894497</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H22" t="n">
-        <v>237.3784103072398</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09403070477868093</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05100308223599759</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0725166034153838</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08503221562058454</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M22" t="n">
-        <v>0.168989223854496</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000159816543427</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1761834449699004</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P22" t="n">
-        <v>113.1116813210667</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q22" t="n">
-        <v>177.7121000390813</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_21</t>
+          <t>model_34_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998093267111412</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6053883970329306</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9993722866040519</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997751310257239</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999616147784282</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02819677187557563</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H23" t="n">
-        <v>237.4048859898103</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09662064034921697</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05250238113792301</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07456177056819921</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08050087246106419</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1679189443617832</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000157798583883</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1750676014633988</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P23" t="n">
-        <v>113.1370955601757</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.7375142781904</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_22</t>
+          <t>model_34_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998108341079601</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.6055504760949719</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9993568332853803</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997692606178484</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999606500911644</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0279738579871893</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H24" t="n">
-        <v>237.4288542465365</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09899928887767696</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05387300326447125</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0764356373191843</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07642942070617477</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1672538728615553</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000156551083067</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1743742164925184</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P24" t="n">
-        <v>113.152969696476</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7533884144906</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_23</t>
+          <t>model_34_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998116290904657</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6056967767326613</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9993426604712052</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997639097991065</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995976642853835</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02785629594959086</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H25" t="n">
-        <v>237.4504891893797</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1011808360455219</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05512231178244952</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07815211692476302</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07276709359699474</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1669020549591612</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000155893166511</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1740074209736559</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P25" t="n">
-        <v>113.1613925434908</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q25" t="n">
-        <v>177.7618112615054</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998118927290774</v>
+        <v>0.9997058837929482</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6058291099717241</v>
+        <v>0.7014553523661253</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9993297102635108</v>
+        <v>0.9997041626281999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997590221573507</v>
+        <v>0.9999888437131497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995895974563167</v>
+        <v>0.9999250027496585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02781730906349918</v>
+        <v>0.0001746000856645352</v>
       </c>
       <c r="H26" t="n">
-        <v>237.4700586328803</v>
+        <v>0.1772289992927379</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1031741937915338</v>
+        <v>0.0001424082685028334</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05626347779322712</v>
+        <v>6.32196281124164e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07971906647842475</v>
+        <v>7.436723823477589e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06947256471358768</v>
+        <v>0.005296279504786582</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1667852183603187</v>
+        <v>0.01321363256884855</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000155674982832</v>
+        <v>1.000243406516181</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1738856103989156</v>
+        <v>0.01377616426329468</v>
       </c>
       <c r="P26" t="n">
-        <v>113.1641936477093</v>
+        <v>123.3060248478516</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.7646123657239</v>
+        <v>187.9064435658663</v>
       </c>
     </row>
   </sheetData>
